--- a/GBDS MAY FILES 2025/PURCHASES-EXPENSES.xlsx
+++ b/GBDS MAY FILES 2025/PURCHASES-EXPENSES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS MAY FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD973E90-F84C-410C-AB5B-515F874D9005}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52C6AFB-FA0E-4C38-9212-D863FB55FE92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2878,7 +2878,9 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="19">
+        <v>45799</v>
+      </c>
       <c r="C21" s="20" t="s">
         <v>68</v>
       </c>
@@ -2886,22 +2888,27 @@
       <c r="E21" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="20"/>
+      <c r="F21" s="20">
+        <v>517539176</v>
+      </c>
       <c r="G21" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="H21" s="21"/>
+      <c r="H21" s="21">
+        <f>1387725-57104.59</f>
+        <v>1330620.4099999999</v>
+      </c>
       <c r="J21" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>142566.47249999997</v>
       </c>
       <c r="K21" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1188053.9375</v>
       </c>
       <c r="L21" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11880.539374999998</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -2909,7 +2916,9 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B22" s="19"/>
+      <c r="B22" s="19">
+        <v>45800</v>
+      </c>
       <c r="C22" s="20" t="s">
         <v>68</v>
       </c>
@@ -2917,22 +2926,27 @@
       <c r="E22" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="20"/>
+      <c r="F22" s="20">
+        <v>517543400</v>
+      </c>
       <c r="G22" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="21"/>
+      <c r="H22" s="21">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="J22" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="K22" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="L22" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -3099,19 +3113,19 @@
       <c r="F32"/>
       <c r="H32" s="14">
         <f>SUM(H7:H31)</f>
-        <v>17995049.950000003</v>
+        <v>20622547.320000004</v>
       </c>
       <c r="J32" s="14">
         <f>SUM(J7:J31)</f>
-        <v>1928041.0660714286</v>
+        <v>2209558.6414285712</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>16067008.883928571</v>
+        <v>18412988.678571429</v>
       </c>
       <c r="L32" s="36">
         <f>SUM(L7:L31)</f>
-        <v>160670.08883928572</v>
+        <v>184129.88678571428</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">

--- a/GBDS MAY FILES 2025/PURCHASES-EXPENSES.xlsx
+++ b/GBDS MAY FILES 2025/PURCHASES-EXPENSES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS MAY FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52C6AFB-FA0E-4C38-9212-D863FB55FE92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E752BEF6-9AB5-4CA3-8194-225746D4F1A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="76">
   <si>
     <t>HOME MART ENTERPRISES</t>
   </si>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2954,7 +2954,9 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="19">
+        <v>45801</v>
+      </c>
       <c r="C23" s="20" t="s">
         <v>68</v>
       </c>
@@ -2962,20 +2964,27 @@
       <c r="E23" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21"/>
+      <c r="F23" s="20">
+        <v>517547926</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="21">
+        <f>1353132-56848.56</f>
+        <v>1296283.44</v>
+      </c>
       <c r="J23" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>138887.51142857142</v>
       </c>
       <c r="K23" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1157395.9285714286</v>
       </c>
       <c r="L23" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11573.959285714285</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2983,7 +2992,9 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="19">
+        <v>45801</v>
+      </c>
       <c r="C24" s="20" t="s">
         <v>68</v>
       </c>
@@ -2991,20 +3002,27 @@
       <c r="E24" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21"/>
+      <c r="F24" s="20">
+        <v>517547933</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="21">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="J24" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="K24" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="L24" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -3113,19 +3131,19 @@
       <c r="F32"/>
       <c r="H32" s="14">
         <f>SUM(H7:H31)</f>
-        <v>20622547.320000004</v>
+        <v>23215707.720000006</v>
       </c>
       <c r="J32" s="14">
         <f>SUM(J7:J31)</f>
-        <v>2209558.6414285712</v>
+        <v>2487397.2557142852</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>18412988.678571429</v>
+        <v>20728310.464285716</v>
       </c>
       <c r="L32" s="36">
         <f>SUM(L7:L31)</f>
-        <v>184129.88678571428</v>
+        <v>207283.10464285713</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
